--- a/18_pandas/familie.xlsx
+++ b/18_pandas/familie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Alter</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ort</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,11 @@
       <c r="C2" t="n">
         <v>78</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Lienen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +485,11 @@
       <c r="C3" t="n">
         <v>43</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Greven</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -487,6 +502,11 @@
       </c>
       <c r="C4" t="n">
         <v>8</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Greven</t>
+        </is>
       </c>
     </row>
   </sheetData>
